--- a/Kolkata/Frono_Customer_Report/Customer.xlsx
+++ b/Kolkata/Frono_Customer_Report/Customer.xlsx
@@ -1013,7 +1013,7 @@
         <v>Raghani</v>
       </c>
       <c r="I16" t="str">
-        <v>1,030,149.00 Dr</v>
+        <v>1,229,906.00 Dr</v>
       </c>
       <c r="J16" t="str">
         <v>ARNAV GOYAL</v>

--- a/Kolkata/Frono_Customer_Report/Customer.xlsx
+++ b/Kolkata/Frono_Customer_Report/Customer.xlsx
@@ -23005,7 +23005,7 @@
         <v>Telangana</v>
       </c>
       <c r="I596" t="str">
-        <v>741,363.00 Dr</v>
+        <v>454,330.00 Dr</v>
       </c>
       <c r="J596" t="str">
         <v>PRAVEEN BHAI</v>
@@ -27923,7 +27923,7 @@
         <v>Gujarat</v>
       </c>
       <c r="I724" t="str">
-        <v>1,632,792.00 Dr</v>
+        <v>0.00 Cr</v>
       </c>
       <c r="J724" t="str">
         <v>PARAG BHAI</v>
